--- a/fig5/data/Figure_5_boxplot_data.xlsx
+++ b/fig5/data/Figure_5_boxplot_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gittis\Documents\GitHub\willard2018a\fig5\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FB88D2-97D1-4D07-B5AD-B841AA4FCBD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2800" windowWidth="22800" windowHeight="15580" tabRatio="500"/>
+    <workbookView xWindow="2805" yWindow="2805" windowWidth="22800" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 5 Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>G30% p values for pairs (p&lt;0.01=synchronous)</t>
   </si>
@@ -119,11 +125,32 @@
   <si>
     <t>Figure #</t>
   </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>AS85% Fractional Beta Power</t>
+  </si>
+  <si>
+    <t>AS60% Fractional Beta Power</t>
+  </si>
+  <si>
+    <t>AS30% Fractional Beta Power</t>
+  </si>
+  <si>
+    <t>G30% Fractional Beta Power</t>
+  </si>
+  <si>
+    <t>Ctl Fractional Beta Power</t>
+  </si>
+  <si>
+    <t>LFP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,10 +219,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -520,27 +555,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.375" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -604,8 +639,23 @@
       <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+      <c r="V1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -669,8 +719,23 @@
       <c r="U2" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+      <c r="V2" s="2">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3</v>
+      </c>
+      <c r="X2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -734,8 +799,23 @@
       <c r="U3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1">
+      <c r="V3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -799,8 +879,23 @@
       <c r="U4" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>31.310060904840586</v>
       </c>
@@ -861,8 +956,23 @@
       <c r="U5">
         <v>0.21225071225071224</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>6.5799999999999997E-2</v>
+      </c>
+      <c r="W5">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="X5">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="Y5">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="Z5">
+        <v>0.13539999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>33.330889596086585</v>
       </c>
@@ -923,8 +1033,23 @@
       <c r="U6">
         <v>0.63247863247863245</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>1.61E-2</v>
+      </c>
+      <c r="W6">
+        <v>4.07E-2</v>
+      </c>
+      <c r="X6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Y6">
+        <v>6.54E-2</v>
+      </c>
+      <c r="Z6">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>34.109214464303214</v>
       </c>
@@ -985,8 +1110,23 @@
       <c r="U7">
         <v>0.45370370370370372</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="W7">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="X7">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="Y7">
+        <v>5.45E-2</v>
+      </c>
+      <c r="Z7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>33.065713085860402</v>
       </c>
@@ -1047,8 +1187,17 @@
       <c r="U8">
         <v>0.39672364672364674</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="X8">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="Z8">
+        <v>7.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8.1535095621516334</v>
       </c>
@@ -1109,8 +1258,14 @@
       <c r="U9">
         <v>0.86039886039886038</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>7.1300000000000002E-2</v>
+      </c>
+      <c r="Z9">
+        <v>4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>8.7967304012049965</v>
       </c>
@@ -1171,8 +1326,14 @@
       <c r="U10">
         <v>0.79772079772079774</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>0.1057</v>
+      </c>
+      <c r="Z10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>34.932227851555695</v>
       </c>
@@ -1233,8 +1394,14 @@
       <c r="U11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>0.1023</v>
+      </c>
+      <c r="Z11">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>24.803253202506738</v>
       </c>
@@ -1295,8 +1462,11 @@
       <c r="U12">
         <v>1.4245014245014246E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="Z12">
+        <v>9.4200000000000006E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>23.445601376728014</v>
       </c>
@@ -1358,7 +1528,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12.318184845217566</v>
       </c>
@@ -1420,7 +1590,7 @@
         <v>0.67948717948717952</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>33.545196837459692</v>
       </c>
@@ -1482,7 +1652,7 @@
         <v>0.89814814814814814</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>25.56239291728653</v>
       </c>
@@ -1544,7 +1714,7 @@
         <v>3.2051282051282055E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>38.739429592400349</v>
       </c>
@@ -1606,7 +1776,7 @@
         <v>0.9878917378917379</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>26.204342796449371</v>
       </c>
@@ -1668,7 +1838,7 @@
         <v>0.920940170940171</v>
       </c>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12.674266828884994</v>
       </c>
@@ -1730,7 +1900,7 @@
         <v>0.9237891737891738</v>
       </c>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>28.840571438828512</v>
       </c>
@@ -1792,7 +1962,7 @@
         <v>0.98219373219373218</v>
       </c>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>26.789609327293231</v>
       </c>
@@ -1854,7 +2024,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>41.299444096647761</v>
       </c>
@@ -1916,7 +2086,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>4.2434694955567993</v>
       </c>
@@ -1978,7 +2148,7 @@
         <v>2.279202279202279E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11.673151961569113</v>
       </c>
@@ -2040,7 +2210,7 @@
         <v>0.9907407407407407</v>
       </c>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>37.638277991264275</v>
       </c>
@@ -2102,7 +2272,7 @@
         <v>0.31552706552706555</v>
       </c>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>31.95474685684043</v>
       </c>
@@ -2164,7 +2334,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>39.097637291254145</v>
       </c>
@@ -2226,7 +2396,7 @@
         <v>5.6980056980056983E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>42.221622456903141</v>
       </c>
@@ -2288,7 +2458,7 @@
         <v>0.32122507122507127</v>
       </c>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>35.931773447262081</v>
       </c>
@@ -2350,7 +2520,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>34.056912865514256</v>
       </c>
@@ -2412,7 +2582,7 @@
         <v>0.88247863247863245</v>
       </c>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>47.921717486947806</v>
       </c>
@@ -2474,7 +2644,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31.475399860919165</v>
       </c>
@@ -2536,7 +2706,7 @@
         <v>0.36609686609686609</v>
       </c>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9.8394226041814274</v>
       </c>
@@ -2598,7 +2768,7 @@
         <v>0.13817663817663817</v>
       </c>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33.821119935962471</v>
       </c>
@@ -2660,7 +2830,7 @@
         <v>0.64601139601139601</v>
       </c>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>47.240400593863114</v>
       </c>
@@ -2722,7 +2892,7 @@
         <v>1.0683760683760684E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>44.927267180103584</v>
       </c>
@@ -2784,7 +2954,7 @@
         <v>0.24287749287749288</v>
       </c>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>64.923085353207028</v>
       </c>
@@ -2846,7 +3016,7 @@
         <v>0.55769230769230771</v>
       </c>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>38.732399153981056</v>
       </c>
@@ -2908,7 +3078,7 @@
         <v>0.30341880341880345</v>
       </c>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>28.80686002100553</v>
       </c>
@@ -2970,7 +3140,7 @@
         <v>0.57692307692307687</v>
       </c>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>38.446537837355073</v>
       </c>
@@ -3032,7 +3202,7 @@
         <v>0.37535612535612539</v>
       </c>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>35.099324478005187</v>
       </c>
@@ -3094,7 +3264,7 @@
         <v>0.50712250712250717</v>
       </c>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>59.158965955490658</v>
       </c>
@@ -3156,7 +3326,7 @@
         <v>0.93945868945868949</v>
       </c>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>46.261304776357683</v>
       </c>
@@ -3218,7 +3388,7 @@
         <v>0.58119658119658113</v>
       </c>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>47.578352599172135</v>
       </c>
@@ -3280,7 +3450,7 @@
         <v>0.95726495726495731</v>
       </c>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>11.712318138599963</v>
       </c>
@@ -3342,7 +3512,7 @@
         <v>0.21296296296296297</v>
       </c>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>49.414780417948421</v>
       </c>
@@ -3404,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>29.756768146598077</v>
       </c>
@@ -3466,7 +3636,7 @@
         <v>0.46082621082621089</v>
       </c>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>49.829520642541233</v>
       </c>
@@ -3528,7 +3698,7 @@
         <v>0.90740740740740744</v>
       </c>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>49.610348979138529</v>
       </c>
@@ -3590,7 +3760,7 @@
         <v>0.17948717948717949</v>
       </c>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>5.5905633526413157</v>
       </c>
@@ -3652,7 +3822,7 @@
         <v>0.48931623931623935</v>
       </c>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4.9566514646457991</v>
       </c>
@@ -3714,7 +3884,7 @@
         <v>0.85683760683760679</v>
       </c>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>34.492624632359174</v>
       </c>
@@ -3776,7 +3946,7 @@
         <v>0.41096866096866097</v>
       </c>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>33.612397416221818</v>
       </c>
@@ -3838,7 +4008,7 @@
         <v>8.1908831908831914E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>33.544162748304196</v>
       </c>
@@ -3900,7 +4070,7 @@
         <v>0.45299145299145299</v>
       </c>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>45.891314355486685</v>
       </c>
@@ -3962,7 +4132,7 @@
         <v>0.89529914529914523</v>
       </c>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>32.268501786016657</v>
       </c>
@@ -4024,7 +4194,7 @@
         <v>0.89173789173789175</v>
       </c>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>40.547144959130129</v>
       </c>
@@ -4086,7 +4256,7 @@
         <v>0.57977207977207978</v>
       </c>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>33.853546015797761</v>
       </c>
@@ -4148,7 +4318,7 @@
         <v>0.3611111111111111</v>
       </c>
     </row>
-    <row r="59" spans="2:21">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>43.555432117272836</v>
       </c>
@@ -4210,7 +4380,7 @@
         <v>0.65099715099715105</v>
       </c>
     </row>
-    <row r="60" spans="2:21">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>45.942817829483495</v>
       </c>
@@ -4272,7 +4442,7 @@
         <v>0.10042735042735043</v>
       </c>
     </row>
-    <row r="61" spans="2:21">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>30.23281967711619</v>
       </c>
@@ -4334,7 +4504,7 @@
         <v>0.26139601139601143</v>
       </c>
     </row>
-    <row r="62" spans="2:21">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>36.945967082380903</v>
       </c>
@@ -4396,7 +4566,7 @@
         <v>0.7165242165242165</v>
       </c>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>14.78259240689458</v>
       </c>
@@ -4458,7 +4628,7 @@
         <v>0.37678062678062674</v>
       </c>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>45.535851859360186</v>
       </c>
@@ -4520,7 +4690,7 @@
         <v>0.94230769230769229</v>
       </c>
     </row>
-    <row r="65" spans="2:21">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>31.827797885511988</v>
       </c>
@@ -4582,7 +4752,7 @@
         <v>1.8518518518518517E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:21">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>42.360808313191697</v>
       </c>
@@ -4644,7 +4814,7 @@
         <v>0.36823361823361822</v>
       </c>
     </row>
-    <row r="67" spans="2:21">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>35.448070698657908</v>
       </c>
@@ -4706,7 +4876,7 @@
         <v>0.44159544159544162</v>
       </c>
     </row>
-    <row r="68" spans="2:21">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>32.274368490203926</v>
       </c>
@@ -4768,7 +4938,7 @@
         <v>0.90954415954415957</v>
       </c>
     </row>
-    <row r="69" spans="2:21">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>34.881405097785212</v>
       </c>
@@ -4830,7 +5000,7 @@
         <v>2.2079772079772082E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:21">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>27.683170011931697</v>
       </c>
@@ -4892,7 +5062,7 @@
         <v>4.4871794871794872E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:21">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>42.748217416978257</v>
       </c>
@@ -4954,7 +5124,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="72" spans="2:21">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>43.745087833031548</v>
       </c>
@@ -5016,7 +5186,7 @@
         <v>0.28561253561253563</v>
       </c>
     </row>
-    <row r="73" spans="2:21">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>49.742721145669414</v>
       </c>
@@ -5078,7 +5248,7 @@
         <v>0.9757834757834758</v>
       </c>
     </row>
-    <row r="74" spans="2:21">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>36.526307550864622</v>
       </c>
@@ -5140,7 +5310,7 @@
         <v>0.21296296296296297</v>
       </c>
     </row>
-    <row r="75" spans="2:21">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>34.788675469633091</v>
       </c>
@@ -5202,7 +5372,7 @@
         <v>0.3368945868945869</v>
       </c>
     </row>
-    <row r="76" spans="2:21">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>38.387333251463176</v>
       </c>
@@ -5264,7 +5434,7 @@
         <v>0.49074074074074076</v>
       </c>
     </row>
-    <row r="77" spans="2:21">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>43.406581875703822</v>
       </c>
@@ -5326,7 +5496,7 @@
         <v>0.79273504273504281</v>
       </c>
     </row>
-    <row r="78" spans="2:21">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>18.860547216665651</v>
       </c>
@@ -5388,7 +5558,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:21">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>35.47908852287631</v>
       </c>
@@ -5450,7 +5620,7 @@
         <v>1.282051282051282E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:21">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>46.088048543969187</v>
       </c>
@@ -5512,7 +5682,7 @@
         <v>0.93304843304843299</v>
       </c>
     </row>
-    <row r="81" spans="2:21">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>51.690404007347922</v>
       </c>
@@ -5574,7 +5744,7 @@
         <v>0.11752136752136752</v>
       </c>
     </row>
-    <row r="82" spans="2:21">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>36.349805289368447</v>
       </c>
@@ -5636,7 +5806,7 @@
         <v>0.49430199430199429</v>
       </c>
     </row>
-    <row r="83" spans="2:21">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>18.712869117693913</v>
       </c>
@@ -5698,7 +5868,7 @@
         <v>0.61609686609686609</v>
       </c>
     </row>
-    <row r="84" spans="2:21">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>61.353601855006758</v>
       </c>
@@ -5760,7 +5930,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:21">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>7.5186175432863731</v>
       </c>
@@ -5822,7 +5992,7 @@
         <v>0.70299145299145294</v>
       </c>
     </row>
-    <row r="86" spans="2:21">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>28.446264748363649</v>
       </c>
@@ -5884,7 +6054,7 @@
         <v>0.77991452991452992</v>
       </c>
     </row>
-    <row r="87" spans="2:21">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>59.713099196620199</v>
       </c>
@@ -5946,7 +6116,7 @@
         <v>0.3903133903133903</v>
       </c>
     </row>
-    <row r="88" spans="2:21">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>30.341842932671423</v>
       </c>
@@ -6008,7 +6178,7 @@
         <v>7.2649572649572641E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:21">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>25.57677158683228</v>
       </c>
@@ -6070,7 +6240,7 @@
         <v>0.32264957264957261</v>
       </c>
     </row>
-    <row r="90" spans="2:21">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>14.522330178657331</v>
       </c>
@@ -6132,7 +6302,7 @@
         <v>0.54985754985754987</v>
       </c>
     </row>
-    <row r="91" spans="2:21">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>35.047136034064835</v>
       </c>
@@ -6194,7 +6364,7 @@
         <v>0.81908831908831914</v>
       </c>
     </row>
-    <row r="92" spans="2:21">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>29.310832204478778</v>
       </c>
@@ -6256,7 +6426,7 @@
         <v>0.2727920227920228</v>
       </c>
     </row>
-    <row r="93" spans="2:21">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>68.342327593042555</v>
       </c>
@@ -6318,7 +6488,7 @@
         <v>0.43518518518518517</v>
       </c>
     </row>
-    <row r="94" spans="2:21">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>51.373486075926508</v>
       </c>
@@ -6380,7 +6550,7 @@
         <v>0.22649572649572652</v>
       </c>
     </row>
-    <row r="95" spans="2:21">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>41.020639907175791</v>
       </c>
@@ -6442,7 +6612,7 @@
         <v>0.17307692307692307</v>
       </c>
     </row>
-    <row r="96" spans="2:21">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>22.130663287814574</v>
       </c>
@@ -6504,7 +6674,7 @@
         <v>0.14102564102564102</v>
       </c>
     </row>
-    <row r="97" spans="2:21">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>52.752346515375436</v>
       </c>
@@ -6566,7 +6736,7 @@
         <v>0.22863247863247865</v>
       </c>
     </row>
-    <row r="98" spans="2:21">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>34.87596128906943</v>
       </c>
@@ -6628,7 +6798,7 @@
         <v>0.46509971509971504</v>
       </c>
     </row>
-    <row r="99" spans="2:21">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>22.446327166489652</v>
       </c>
@@ -6690,7 +6860,7 @@
         <v>0.48219373219373218</v>
       </c>
     </row>
-    <row r="100" spans="2:21">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>53.498139535618392</v>
       </c>
@@ -6752,7 +6922,7 @@
         <v>0.76068376068376065</v>
       </c>
     </row>
-    <row r="101" spans="2:21">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>40.508661255608565</v>
       </c>
@@ -6811,7 +6981,7 @@
         <v>0.75712250712250717</v>
       </c>
     </row>
-    <row r="102" spans="2:21">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>35.669196903485471</v>
       </c>
@@ -6870,7 +7040,7 @@
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:21">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>51.525602795681536</v>
       </c>
@@ -6920,7 +7090,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="104" spans="2:21">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>50.96577747017006</v>
       </c>
@@ -6970,7 +7140,7 @@
         <v>0.88817663817663817</v>
       </c>
     </row>
-    <row r="105" spans="2:21">
+    <row r="105" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>24.755905192302983</v>
       </c>
@@ -7020,7 +7190,7 @@
         <v>0.95299145299145294</v>
       </c>
     </row>
-    <row r="106" spans="2:21">
+    <row r="106" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>19.090049327128607</v>
       </c>
@@ -7070,7 +7240,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:21">
+    <row r="107" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>35.617718992188486</v>
       </c>
@@ -7120,7 +7290,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:21">
+    <row r="108" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>47.674449936389998</v>
       </c>
@@ -7170,7 +7340,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:21">
+    <row r="109" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>48.419901739718718</v>
       </c>
@@ -7220,7 +7390,7 @@
         <v>0.73433048433048431</v>
       </c>
     </row>
-    <row r="110" spans="2:21">
+    <row r="110" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>46.085758524536054</v>
       </c>
@@ -7270,7 +7440,7 @@
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="111" spans="2:21">
+    <row r="111" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>13.917835613377822</v>
       </c>
@@ -7320,7 +7490,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:21">
+    <row r="112" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>42.683208764278938</v>
       </c>
@@ -7370,7 +7540,7 @@
         <v>0.10683760683760685</v>
       </c>
     </row>
-    <row r="113" spans="2:21">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>21.557216104973207</v>
       </c>
@@ -7420,7 +7590,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:21">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>19.012494945552703</v>
       </c>
@@ -7470,7 +7640,7 @@
         <v>7.8347578347578353E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:21">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>66.76103953123598</v>
       </c>
@@ -7520,7 +7690,7 @@
         <v>0.5826210826210827</v>
       </c>
     </row>
-    <row r="116" spans="2:21">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>21.303209463175339</v>
       </c>
@@ -7570,7 +7740,7 @@
         <v>0.44800569800569801</v>
       </c>
     </row>
-    <row r="117" spans="2:21">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>30.036551110909802</v>
       </c>
@@ -7620,7 +7790,7 @@
         <v>2.564102564102564E-2</v>
       </c>
     </row>
-    <row r="118" spans="2:21">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>69.59737577167418</v>
       </c>
@@ -7670,7 +7840,7 @@
         <v>0.18660968660968663</v>
       </c>
     </row>
-    <row r="119" spans="2:21">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>50.381312120412787</v>
       </c>
@@ -7720,7 +7890,7 @@
         <v>0.30698005698005698</v>
       </c>
     </row>
-    <row r="120" spans="2:21">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>37.177615481260631</v>
       </c>
@@ -7770,7 +7940,7 @@
         <v>0.51424501424501423</v>
       </c>
     </row>
-    <row r="121" spans="2:21">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>50.70728015973355</v>
       </c>
@@ -7820,7 +7990,7 @@
         <v>5.6980056980056983E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:21">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>46.916244316403201</v>
       </c>
@@ -7870,7 +8040,7 @@
         <v>0.1623931623931624</v>
       </c>
     </row>
-    <row r="123" spans="2:21">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>59.069142506546676</v>
       </c>
@@ -7920,7 +8090,7 @@
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="124" spans="2:21">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>47.238738343797806</v>
       </c>
@@ -7970,7 +8140,7 @@
         <v>0.97720797720797714</v>
       </c>
     </row>
-    <row r="125" spans="2:21">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>51.860764920781165</v>
       </c>
@@ -8020,7 +8190,7 @@
         <v>0.16452991452991453</v>
       </c>
     </row>
-    <row r="126" spans="2:21">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>36.406858156116066</v>
       </c>
@@ -8070,7 +8240,7 @@
         <v>4.2735042735042736E-2</v>
       </c>
     </row>
-    <row r="127" spans="2:21">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>31.447284747909098</v>
       </c>
@@ -8120,7 +8290,7 @@
         <v>0.91666666666666674</v>
       </c>
     </row>
-    <row r="128" spans="2:21">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>45.78084590867801</v>
       </c>
@@ -8170,7 +8340,7 @@
         <v>0.67165242165242156</v>
       </c>
     </row>
-    <row r="129" spans="2:21">
+    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>49.423937273898169</v>
       </c>
@@ -8220,7 +8390,7 @@
         <v>0.11396011396011396</v>
       </c>
     </row>
-    <row r="130" spans="2:21">
+    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>5.3646236978875486</v>
       </c>
@@ -8270,7 +8440,7 @@
         <v>0.50712250712250717</v>
       </c>
     </row>
-    <row r="131" spans="2:21">
+    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>4.0595492436218317</v>
       </c>
@@ -8320,7 +8490,7 @@
         <v>4.5584045584045579E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:21">
+    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>2.3214971468820762</v>
       </c>
@@ -8370,7 +8540,7 @@
         <v>0.92735042735042739</v>
       </c>
     </row>
-    <row r="133" spans="2:21">
+    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>31.825392103552694</v>
       </c>
@@ -8420,7 +8590,7 @@
         <v>1.3532763532763533E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:21">
+    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>17.494616675427569</v>
       </c>
@@ -8470,7 +8640,7 @@
         <v>0.92735042735042739</v>
       </c>
     </row>
-    <row r="135" spans="2:21">
+    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>26.079393182410517</v>
       </c>
@@ -8520,7 +8690,7 @@
         <v>0.62250712250712248</v>
       </c>
     </row>
-    <row r="136" spans="2:21">
+    <row r="136" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>32.503270301772083</v>
       </c>
@@ -8570,7 +8740,7 @@
         <v>3.5612535612535613E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:21">
+    <row r="137" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>36.847575935611204</v>
       </c>
@@ -8620,7 +8790,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:21">
+    <row r="138" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>49.126045935781434</v>
       </c>
@@ -8670,7 +8840,7 @@
         <v>0.26780626780626782</v>
       </c>
     </row>
-    <row r="139" spans="2:21">
+    <row r="139" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>23.477213260171922</v>
       </c>
@@ -8720,7 +8890,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:21">
+    <row r="140" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>27.786995769520754</v>
       </c>
@@ -8770,7 +8940,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:21">
+    <row r="141" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>45.912423294809692</v>
       </c>
@@ -8820,7 +8990,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:21">
+    <row r="142" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>2.7543022275795583</v>
       </c>
@@ -8870,7 +9040,7 @@
         <v>1.6381766381766381E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:21">
+    <row r="143" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>24.825176596229049</v>
       </c>
@@ -8920,7 +9090,7 @@
         <v>1.9230769230769232E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:21">
+    <row r="144" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>27.429475035972668</v>
       </c>
@@ -8970,7 +9140,7 @@
         <v>0.99786324786324787</v>
       </c>
     </row>
-    <row r="145" spans="2:21">
+    <row r="145" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>43.398802672410035</v>
       </c>
@@ -9020,7 +9190,7 @@
         <v>1.3532763532763533E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:21">
+    <row r="146" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>43.366470524711296</v>
       </c>
@@ -9070,7 +9240,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:21">
+    <row r="147" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>30.056477501455728</v>
       </c>
@@ -9120,7 +9290,7 @@
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:21">
+    <row r="148" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>29.239486462593632</v>
       </c>
@@ -9170,7 +9340,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:21">
+    <row r="149" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>18.205902851821609</v>
       </c>
@@ -9220,7 +9390,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="150" spans="2:21">
+    <row r="150" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>16.842865228510927</v>
       </c>
@@ -9270,7 +9440,7 @@
         <v>3.4900284900284906E-2</v>
       </c>
     </row>
-    <row r="151" spans="2:21">
+    <row r="151" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>36.972828424888043</v>
       </c>
@@ -9320,7 +9490,7 @@
         <v>0.28632478632478631</v>
       </c>
     </row>
-    <row r="152" spans="2:21">
+    <row r="152" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>36.356713153933484</v>
       </c>
@@ -9370,7 +9540,7 @@
         <v>7.6210826210826213E-2</v>
       </c>
     </row>
-    <row r="153" spans="2:21">
+    <row r="153" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>14.744623063588572</v>
       </c>
@@ -9420,7 +9590,7 @@
         <v>0.87037037037037035</v>
       </c>
     </row>
-    <row r="154" spans="2:21">
+    <row r="154" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.371129658237303</v>
       </c>
@@ -9470,7 +9640,7 @@
         <v>0.10398860398860399</v>
       </c>
     </row>
-    <row r="155" spans="2:21">
+    <row r="155" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>14.521195021270966</v>
       </c>
@@ -9511,7 +9681,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:21">
+    <row r="156" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>41.14738433452424</v>
       </c>
@@ -9552,7 +9722,7 @@
         <v>0.1745014245014245</v>
       </c>
     </row>
-    <row r="157" spans="2:21">
+    <row r="157" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>39.386072771248429</v>
       </c>
@@ -9593,7 +9763,7 @@
         <v>2.6353276353276354E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:21">
+    <row r="158" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>33.224901296093869</v>
       </c>
@@ -9634,7 +9804,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:21">
+    <row r="159" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>13.663452247417077</v>
       </c>
@@ -9675,7 +9845,7 @@
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:21">
+    <row r="160" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>18.567064032948757</v>
       </c>
@@ -9707,7 +9877,7 @@
         <v>0.92735042735042739</v>
       </c>
     </row>
-    <row r="161" spans="2:21">
+    <row r="161" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>43.022959520448175</v>
       </c>
@@ -9739,7 +9909,7 @@
         <v>0.7257834757834758</v>
       </c>
     </row>
-    <row r="162" spans="2:21">
+    <row r="162" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>42.665286460301928</v>
       </c>
@@ -9771,7 +9941,7 @@
         <v>5.9829059829059825E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:21">
+    <row r="163" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>37.080295110886773</v>
       </c>
@@ -9803,7 +9973,7 @@
         <v>0.1745014245014245</v>
       </c>
     </row>
-    <row r="164" spans="2:21">
+    <row r="164" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>44.177383852540373</v>
       </c>
@@ -9835,7 +10005,7 @@
         <v>0.31837606837606836</v>
       </c>
     </row>
-    <row r="165" spans="2:21">
+    <row r="165" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>16.302154989377243</v>
       </c>
@@ -9867,7 +10037,7 @@
         <v>5.4131054131054131E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:21">
+    <row r="166" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>41.736567792880315</v>
       </c>
@@ -9899,7 +10069,7 @@
         <v>0.51638176638176636</v>
       </c>
     </row>
-    <row r="167" spans="2:21">
+    <row r="167" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>31.324961788392894</v>
       </c>
@@ -9931,7 +10101,7 @@
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:21">
+    <row r="168" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>13.046577887074982</v>
       </c>
@@ -9963,7 +10133,7 @@
         <v>0.41096866096866097</v>
       </c>
     </row>
-    <row r="169" spans="2:21">
+    <row r="169" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>46.073728956513634</v>
       </c>
@@ -9995,7 +10165,7 @@
         <v>1.2820512820512822E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:21">
+    <row r="170" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>42.62722668957182</v>
       </c>
@@ -10027,7 +10197,7 @@
         <v>0.22507122507122507</v>
       </c>
     </row>
-    <row r="171" spans="2:21">
+    <row r="171" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>26.982108515155456</v>
       </c>
@@ -10059,7 +10229,7 @@
         <v>0.67948717948717952</v>
       </c>
     </row>
-    <row r="172" spans="2:21">
+    <row r="172" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>14.81209428624474</v>
       </c>
@@ -10091,7 +10261,7 @@
         <v>0.80270655270655267</v>
       </c>
     </row>
-    <row r="173" spans="2:21">
+    <row r="173" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>13.592947737461381</v>
       </c>
@@ -10123,7 +10293,7 @@
         <v>0.90384615384615385</v>
       </c>
     </row>
-    <row r="174" spans="2:21">
+    <row r="174" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>40.557180203514442</v>
       </c>
@@ -10155,7 +10325,7 @@
         <v>0.15313390313390313</v>
       </c>
     </row>
-    <row r="175" spans="2:21">
+    <row r="175" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>13.165786342495799</v>
       </c>
@@ -10187,7 +10357,7 @@
         <v>0.29415954415954415</v>
       </c>
     </row>
-    <row r="176" spans="2:21">
+    <row r="176" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>37.799959093648432</v>
       </c>
@@ -10219,7 +10389,7 @@
         <v>0.7350427350427351</v>
       </c>
     </row>
-    <row r="177" spans="2:21">
+    <row r="177" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B177">
         <v>43.852414785571654</v>
       </c>
@@ -10251,7 +10421,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="178" spans="2:21">
+    <row r="178" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B178">
         <v>51.013867599216987</v>
       </c>
@@ -10283,7 +10453,7 @@
         <v>0.13176638176638178</v>
       </c>
     </row>
-    <row r="179" spans="2:21">
+    <row r="179" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B179">
         <v>50.364218397734803</v>
       </c>
@@ -10315,7 +10485,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:21">
+    <row r="180" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B180">
         <v>43.690860021197715</v>
       </c>
@@ -10347,7 +10517,7 @@
         <v>0.53846153846153855</v>
       </c>
     </row>
-    <row r="181" spans="2:21">
+    <row r="181" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B181">
         <v>13.369117018138178</v>
       </c>
@@ -10379,7 +10549,7 @@
         <v>0.92236467236467234</v>
       </c>
     </row>
-    <row r="182" spans="2:21">
+    <row r="182" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>34.394366007091676</v>
       </c>
@@ -10411,7 +10581,7 @@
         <v>7.1937321937321941E-2</v>
       </c>
     </row>
-    <row r="183" spans="2:21">
+    <row r="183" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B183">
         <v>47.144604039323013</v>
       </c>
@@ -10443,7 +10613,7 @@
         <v>0.90954415954415957</v>
       </c>
     </row>
-    <row r="184" spans="2:21">
+    <row r="184" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B184">
         <v>20.842774385269536</v>
       </c>
@@ -10475,7 +10645,7 @@
         <v>0.86396011396011396</v>
       </c>
     </row>
-    <row r="185" spans="2:21">
+    <row r="185" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B185">
         <v>94.093780891308796</v>
       </c>
@@ -10507,7 +10677,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:21">
+    <row r="186" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B186">
         <v>26.101342477335248</v>
       </c>
@@ -10539,7 +10709,7 @@
         <v>0.99928774928774922</v>
       </c>
     </row>
-    <row r="187" spans="2:21">
+    <row r="187" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B187">
         <v>17.633356971530151</v>
       </c>
@@ -10571,7 +10741,7 @@
         <v>0.94373219373219375</v>
       </c>
     </row>
-    <row r="188" spans="2:21">
+    <row r="188" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B188">
         <v>10.251790691675001</v>
       </c>
@@ -10603,7 +10773,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:21">
+    <row r="189" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B189">
         <v>63.771608493739222</v>
       </c>
@@ -10635,7 +10805,7 @@
         <v>2.136752136752137E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:21">
+    <row r="190" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>41.280868719878661</v>
       </c>
@@ -10667,7 +10837,7 @@
         <v>0.97507122507122501</v>
       </c>
     </row>
-    <row r="191" spans="2:21">
+    <row r="191" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B191">
         <v>74.14113333542555</v>
       </c>
@@ -10699,7 +10869,7 @@
         <v>0.98290598290598286</v>
       </c>
     </row>
-    <row r="192" spans="2:21">
+    <row r="192" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B192">
         <v>39.117102772508034</v>
       </c>
@@ -10731,7 +10901,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="193" spans="2:21">
+    <row r="193" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B193">
         <v>38.630194922177488</v>
       </c>
@@ -10763,7 +10933,7 @@
         <v>1.5669515669515671E-2</v>
       </c>
     </row>
-    <row r="194" spans="2:21">
+    <row r="194" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B194">
         <v>73.507891375671846</v>
       </c>
@@ -10795,7 +10965,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:21">
+    <row r="195" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B195">
         <v>50.097369777738628</v>
       </c>
@@ -10827,7 +10997,7 @@
         <v>8.8319088319088315E-2</v>
       </c>
     </row>
-    <row r="196" spans="2:21">
+    <row r="196" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B196">
         <v>14.118016906886309</v>
       </c>
@@ -10859,7 +11029,7 @@
         <v>0.30128205128205127</v>
       </c>
     </row>
-    <row r="197" spans="2:21">
+    <row r="197" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B197">
         <v>56.766101551313149</v>
       </c>
@@ -10891,7 +11061,7 @@
         <v>0.88034188034188032</v>
       </c>
     </row>
-    <row r="198" spans="2:21">
+    <row r="198" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>25.279830025675462</v>
       </c>
@@ -10923,7 +11093,7 @@
         <v>0.83048433048433046</v>
       </c>
     </row>
-    <row r="199" spans="2:21">
+    <row r="199" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B199">
         <v>24.862814212571756</v>
       </c>
@@ -10955,7 +11125,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="200" spans="2:21">
+    <row r="200" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B200">
         <v>11.545647975466609</v>
       </c>
@@ -10987,7 +11157,7 @@
         <v>0.57478632478632474</v>
       </c>
     </row>
-    <row r="201" spans="2:21">
+    <row r="201" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B201">
         <v>63.589981770090681</v>
       </c>
@@ -11019,7 +11189,7 @@
         <v>0.24145299145299148</v>
       </c>
     </row>
-    <row r="202" spans="2:21">
+    <row r="202" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B202">
         <v>68.298977993740223</v>
       </c>
@@ -11051,7 +11221,7 @@
         <v>0.71438746438746437</v>
       </c>
     </row>
-    <row r="203" spans="2:21">
+    <row r="203" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B203">
         <v>27.594830709062958</v>
       </c>
@@ -11083,7 +11253,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="204" spans="2:21">
+    <row r="204" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B204">
         <v>30.55549637977618</v>
       </c>
@@ -11112,7 +11282,7 @@
         <v>0.88461538461538458</v>
       </c>
     </row>
-    <row r="205" spans="2:21">
+    <row r="205" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B205">
         <v>60.223533990755143</v>
       </c>
@@ -11141,7 +11311,7 @@
         <v>0.22934472934472935</v>
       </c>
     </row>
-    <row r="206" spans="2:21">
+    <row r="206" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>37.32782518100737</v>
       </c>
@@ -11170,7 +11340,7 @@
         <v>0.47293447293447288</v>
       </c>
     </row>
-    <row r="207" spans="2:21">
+    <row r="207" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B207">
         <v>13.499508447931271</v>
       </c>
@@ -11199,7 +11369,7 @@
         <v>0.5092592592592593</v>
       </c>
     </row>
-    <row r="208" spans="2:21">
+    <row r="208" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B208">
         <v>16.96616343590798</v>
       </c>
@@ -11228,7 +11398,7 @@
         <v>5.2706552706552709E-2</v>
       </c>
     </row>
-    <row r="209" spans="2:21">
+    <row r="209" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B209">
         <v>26.572207391455716</v>
       </c>
@@ -11257,7 +11427,7 @@
         <v>0.23290598290598291</v>
       </c>
     </row>
-    <row r="210" spans="2:21">
+    <row r="210" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B210">
         <v>28.811216114861832</v>
       </c>
@@ -11286,7 +11456,7 @@
         <v>0.66025641025641035</v>
       </c>
     </row>
-    <row r="211" spans="2:21">
+    <row r="211" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B211">
         <v>4.4221582504049115</v>
       </c>
@@ -11315,7 +11485,7 @@
         <v>9.7578347578347574E-2</v>
       </c>
     </row>
-    <row r="212" spans="2:21">
+    <row r="212" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B212">
         <v>22.686114911172751</v>
       </c>
@@ -11344,7 +11514,7 @@
         <v>0.27706552706552706</v>
       </c>
     </row>
-    <row r="213" spans="2:21">
+    <row r="213" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B213">
         <v>60.95802874970434</v>
       </c>
@@ -11373,7 +11543,7 @@
         <v>8.1908831908831914E-2</v>
       </c>
     </row>
-    <row r="214" spans="2:21">
+    <row r="214" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>30.309874450463422</v>
       </c>
@@ -11402,7 +11572,7 @@
         <v>0.5213675213675214</v>
       </c>
     </row>
-    <row r="215" spans="2:21">
+    <row r="215" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B215">
         <v>58.969984426003059</v>
       </c>
@@ -11431,7 +11601,7 @@
         <v>0.60968660968660959</v>
       </c>
     </row>
-    <row r="216" spans="2:21">
+    <row r="216" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B216">
         <v>28.948199756006144</v>
       </c>
@@ -11460,7 +11630,7 @@
         <v>5.3418803418803423E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:21">
+    <row r="217" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B217">
         <v>23.103639244682309</v>
       </c>
@@ -11489,7 +11659,7 @@
         <v>2.1367521367521368E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:21">
+    <row r="218" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B218">
         <v>64.078514587723333</v>
       </c>
@@ -11518,7 +11688,7 @@
         <v>0.88675213675213671</v>
       </c>
     </row>
-    <row r="219" spans="2:21">
+    <row r="219" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B219">
         <v>29.518525304355588</v>
       </c>
@@ -11547,7 +11717,7 @@
         <v>0.65099715099715105</v>
       </c>
     </row>
-    <row r="220" spans="2:21">
+    <row r="220" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B220">
         <v>26.384064530971376</v>
       </c>
@@ -11576,7 +11746,7 @@
         <v>0.34686609686609687</v>
       </c>
     </row>
-    <row r="221" spans="2:21">
+    <row r="221" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B221">
         <v>28.62506156897857</v>
       </c>
@@ -11605,7 +11775,7 @@
         <v>0.2364672364672365</v>
       </c>
     </row>
-    <row r="222" spans="2:21">
+    <row r="222" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>63.371653814342594</v>
       </c>
@@ -11634,7 +11804,7 @@
         <v>0.48433048433048431</v>
       </c>
     </row>
-    <row r="223" spans="2:21">
+    <row r="223" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B223">
         <v>32.035027973578636</v>
       </c>
@@ -11663,7 +11833,7 @@
         <v>0.16737891737891739</v>
       </c>
     </row>
-    <row r="224" spans="2:21">
+    <row r="224" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B224">
         <v>19.145329129100013</v>
       </c>
@@ -11692,7 +11862,7 @@
         <v>0.98076923076923073</v>
       </c>
     </row>
-    <row r="225" spans="2:21">
+    <row r="225" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B225">
         <v>11.237780703330566</v>
       </c>
@@ -11721,7 +11891,7 @@
         <v>0.50427350427350426</v>
       </c>
     </row>
-    <row r="226" spans="2:21">
+    <row r="226" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B226">
         <v>22.845889710246023</v>
       </c>
@@ -11750,7 +11920,7 @@
         <v>0.18162393162393164</v>
       </c>
     </row>
-    <row r="227" spans="2:21">
+    <row r="227" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B227">
         <v>32.508091812869964</v>
       </c>
@@ -11779,7 +11949,7 @@
         <v>0.68874643874643882</v>
       </c>
     </row>
-    <row r="228" spans="2:21">
+    <row r="228" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B228">
         <v>46.206872326877047</v>
       </c>
@@ -11808,7 +11978,7 @@
         <v>0.90740740740740744</v>
       </c>
     </row>
-    <row r="229" spans="2:21">
+    <row r="229" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B229">
         <v>21.77833096934781</v>
       </c>
@@ -11837,7 +12007,7 @@
         <v>0.4358974358974359</v>
       </c>
     </row>
-    <row r="230" spans="2:21">
+    <row r="230" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>40.711622280056808</v>
       </c>
@@ -11866,7 +12036,7 @@
         <v>0.12250712250712251</v>
       </c>
     </row>
-    <row r="231" spans="2:21">
+    <row r="231" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B231">
         <v>44.23335134108946</v>
       </c>
@@ -11895,7 +12065,7 @@
         <v>0.97150997150997154</v>
       </c>
     </row>
-    <row r="232" spans="2:21">
+    <row r="232" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B232">
         <v>47.9577698444837</v>
       </c>
@@ -11924,7 +12094,7 @@
         <v>5.128205128205128E-2</v>
       </c>
     </row>
-    <row r="233" spans="2:21">
+    <row r="233" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B233">
         <v>42.239535197484194</v>
       </c>
@@ -11953,7 +12123,7 @@
         <v>0.32193732193732194</v>
       </c>
     </row>
-    <row r="234" spans="2:21">
+    <row r="234" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B234">
         <v>6.6962389273148197</v>
       </c>
@@ -11982,7 +12152,7 @@
         <v>0.99857549857549865</v>
       </c>
     </row>
-    <row r="235" spans="2:21">
+    <row r="235" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B235">
         <v>44.092488485474547</v>
       </c>
@@ -12011,7 +12181,7 @@
         <v>0.97934472934472927</v>
       </c>
     </row>
-    <row r="236" spans="2:21">
+    <row r="236" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B236">
         <v>20.494592006616127</v>
       </c>
@@ -12040,7 +12210,7 @@
         <v>0.14387464387464388</v>
       </c>
     </row>
-    <row r="237" spans="2:21">
+    <row r="237" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B237">
         <v>6.440954591129878</v>
       </c>
@@ -12069,7 +12239,7 @@
         <v>3.7749287749287749E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:21">
+    <row r="238" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>6.3746060218585816</v>
       </c>
@@ -12098,7 +12268,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="239" spans="2:21">
+    <row r="239" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B239">
         <v>43.603415195536407</v>
       </c>
@@ -12127,7 +12297,7 @@
         <v>0.96438746438746437</v>
       </c>
     </row>
-    <row r="240" spans="2:21">
+    <row r="240" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B240">
         <v>22.885945624496014</v>
       </c>
@@ -12153,7 +12323,7 @@
         <v>0.1054131054131054</v>
       </c>
     </row>
-    <row r="241" spans="2:21">
+    <row r="241" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B241">
         <v>44.391454694912191</v>
       </c>
@@ -12179,7 +12349,7 @@
         <v>0.42236467236467234</v>
       </c>
     </row>
-    <row r="242" spans="2:21">
+    <row r="242" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B242">
         <v>22.045857480153895</v>
       </c>
@@ -12205,7 +12375,7 @@
         <v>0.5641025641025641</v>
       </c>
     </row>
-    <row r="243" spans="2:21">
+    <row r="243" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B243">
         <v>44.683351416386088</v>
       </c>
@@ -12231,7 +12401,7 @@
         <v>0.65883190883190879</v>
       </c>
     </row>
-    <row r="244" spans="2:21">
+    <row r="244" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B244">
         <v>24.258369147517044</v>
       </c>
@@ -12257,7 +12427,7 @@
         <v>0.65099715099715105</v>
       </c>
     </row>
-    <row r="245" spans="2:21">
+    <row r="245" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B245">
         <v>47.846245207308463</v>
       </c>
@@ -12283,7 +12453,7 @@
         <v>0.14529914529914528</v>
       </c>
     </row>
-    <row r="246" spans="2:21">
+    <row r="246" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B246">
         <v>45.578669761956682</v>
       </c>
@@ -12309,7 +12479,7 @@
         <v>0.64173789173789175</v>
       </c>
     </row>
-    <row r="247" spans="2:21">
+    <row r="247" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B247">
         <v>47.929859920406166</v>
       </c>
@@ -12335,7 +12505,7 @@
         <v>0.8568376068376069</v>
       </c>
     </row>
-    <row r="248" spans="2:21">
+    <row r="248" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B248">
         <v>28.106133445863385</v>
       </c>
@@ -12361,7 +12531,7 @@
         <v>0.10754985754985755</v>
       </c>
     </row>
-    <row r="249" spans="2:21">
+    <row r="249" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B249">
         <v>50.203646330934092</v>
       </c>
@@ -12387,7 +12557,7 @@
         <v>0.99287749287749283</v>
       </c>
     </row>
-    <row r="250" spans="2:21">
+    <row r="250" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B250">
         <v>45.835562650169607</v>
       </c>
@@ -12410,7 +12580,7 @@
         <v>0.96011396011396011</v>
       </c>
     </row>
-    <row r="251" spans="2:21">
+    <row r="251" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B251">
         <v>22.436510360257845</v>
       </c>
@@ -12433,7 +12603,7 @@
         <v>0.64245014245014243</v>
       </c>
     </row>
-    <row r="252" spans="2:21">
+    <row r="252" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B252">
         <v>23.711756267058213</v>
       </c>
@@ -12456,7 +12626,7 @@
         <v>0.62535612535612528</v>
       </c>
     </row>
-    <row r="253" spans="2:21">
+    <row r="253" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B253">
         <v>23.27670761446991</v>
       </c>
@@ -12479,7 +12649,7 @@
         <v>0.43304843304843305</v>
       </c>
     </row>
-    <row r="254" spans="2:21">
+    <row r="254" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B254">
         <v>25.44915196801735</v>
       </c>
@@ -12502,7 +12672,7 @@
         <v>0.7378917378917379</v>
       </c>
     </row>
-    <row r="255" spans="2:21">
+    <row r="255" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B255">
         <v>45.980383162394752</v>
       </c>
@@ -12525,7 +12695,7 @@
         <v>0.57122507122507127</v>
       </c>
     </row>
-    <row r="256" spans="2:21">
+    <row r="256" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B256">
         <v>35.27773994483465</v>
       </c>
@@ -12548,7 +12718,7 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="257" spans="2:21">
+    <row r="257" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B257">
         <v>38.041350291083653</v>
       </c>
@@ -12571,7 +12741,7 @@
         <v>0.93660968660968669</v>
       </c>
     </row>
-    <row r="258" spans="2:21">
+    <row r="258" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B258">
         <v>49.175808859982126</v>
       </c>
@@ -12594,7 +12764,7 @@
         <v>0.43945868945868949</v>
       </c>
     </row>
-    <row r="259" spans="2:21">
+    <row r="259" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B259">
         <v>27.572188344976784</v>
       </c>
@@ -12617,7 +12787,7 @@
         <v>0.79273504273504281</v>
       </c>
     </row>
-    <row r="260" spans="2:21">
+    <row r="260" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B260">
         <v>41.392451860692589</v>
       </c>
@@ -12640,7 +12810,7 @@
         <v>0.85612535612535612</v>
       </c>
     </row>
-    <row r="261" spans="2:21">
+    <row r="261" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B261">
         <v>36.388218442601271</v>
       </c>
@@ -12663,7 +12833,7 @@
         <v>0.94943019943019946</v>
       </c>
     </row>
-    <row r="262" spans="2:21">
+    <row r="262" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B262">
         <v>40.689264900169526</v>
       </c>
@@ -12686,7 +12856,7 @@
         <v>0.49572649572649574</v>
       </c>
     </row>
-    <row r="263" spans="2:21">
+    <row r="263" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B263">
         <v>54.152223018145079</v>
       </c>
@@ -12709,7 +12879,7 @@
         <v>0.29772079772079774</v>
       </c>
     </row>
-    <row r="264" spans="2:21">
+    <row r="264" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B264">
         <v>42.967149738217202</v>
       </c>
@@ -12732,7 +12902,7 @@
         <v>0.5028490028490028</v>
       </c>
     </row>
-    <row r="265" spans="2:21">
+    <row r="265" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B265">
         <v>67.081202058120908</v>
       </c>
@@ -12755,7 +12925,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="266" spans="2:21">
+    <row r="266" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B266">
         <v>49.184934771939872</v>
       </c>
@@ -12778,7 +12948,7 @@
         <v>0.9116809116809117</v>
       </c>
     </row>
-    <row r="267" spans="2:21">
+    <row r="267" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F267">
         <v>16.881894205226818</v>
       </c>
@@ -12792,7 +12962,7 @@
         <v>0.42592592592592593</v>
       </c>
     </row>
-    <row r="268" spans="2:21">
+    <row r="268" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F268">
         <v>1.8486791488274852</v>
       </c>
@@ -12806,7 +12976,7 @@
         <v>0.86182336182336183</v>
       </c>
     </row>
-    <row r="269" spans="2:21">
+    <row r="269" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F269">
         <v>13.348951056441615</v>
       </c>
@@ -12820,7 +12990,7 @@
         <v>0.15883190883190884</v>
       </c>
     </row>
-    <row r="270" spans="2:21">
+    <row r="270" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F270">
         <v>22.64706027728425</v>
       </c>
@@ -12834,7 +13004,7 @@
         <v>0.89743589743589747</v>
       </c>
     </row>
-    <row r="271" spans="2:21">
+    <row r="271" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F271">
         <v>84.254466579116354</v>
       </c>
@@ -12848,7 +13018,7 @@
         <v>0.18945868945868946</v>
       </c>
     </row>
-    <row r="272" spans="2:21">
+    <row r="272" spans="2:21" x14ac:dyDescent="0.25">
       <c r="F272">
         <v>15.906963607260556</v>
       </c>
@@ -12862,7 +13032,7 @@
         <v>0.76709401709401703</v>
       </c>
     </row>
-    <row r="273" spans="6:21">
+    <row r="273" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F273">
         <v>53.890375577886495</v>
       </c>
@@ -12876,7 +13046,7 @@
         <v>0.10327635327635327</v>
       </c>
     </row>
-    <row r="274" spans="6:21">
+    <row r="274" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F274">
         <v>57.354281053844588</v>
       </c>
@@ -12890,7 +13060,7 @@
         <v>0.15669515669515671</v>
       </c>
     </row>
-    <row r="275" spans="6:21">
+    <row r="275" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F275">
         <v>28.982547537991415</v>
       </c>
@@ -12904,7 +13074,7 @@
         <v>0.38603988603988604</v>
       </c>
     </row>
-    <row r="276" spans="6:21">
+    <row r="276" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F276">
         <v>47.081934387578656</v>
       </c>
@@ -12918,7 +13088,7 @@
         <v>0.50427350427350426</v>
       </c>
     </row>
-    <row r="277" spans="6:21">
+    <row r="277" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F277">
         <v>19.099926016866295</v>
       </c>
@@ -12932,7 +13102,7 @@
         <v>0.16595441595441596</v>
       </c>
     </row>
-    <row r="278" spans="6:21">
+    <row r="278" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F278">
         <v>23.232258176198659</v>
       </c>
@@ -12946,7 +13116,7 @@
         <v>2.0655270655270654E-2</v>
       </c>
     </row>
-    <row r="279" spans="6:21">
+    <row r="279" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F279">
         <v>19.29650289209232</v>
       </c>
@@ -12960,7 +13130,7 @@
         <v>0.83618233618233617</v>
       </c>
     </row>
-    <row r="280" spans="6:21">
+    <row r="280" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F280">
         <v>35.365287557100807</v>
       </c>
@@ -12974,7 +13144,7 @@
         <v>0.55698005698005693</v>
       </c>
     </row>
-    <row r="281" spans="6:21">
+    <row r="281" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F281">
         <v>23.142506999956368</v>
       </c>
@@ -12988,7 +13158,7 @@
         <v>0.45441595441595439</v>
       </c>
     </row>
-    <row r="282" spans="6:21">
+    <row r="282" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F282">
         <v>17.065878141519811</v>
       </c>
@@ -13002,7 +13172,7 @@
         <v>0.44871794871794873</v>
       </c>
     </row>
-    <row r="283" spans="6:21">
+    <row r="283" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F283">
         <v>19.473309572869184</v>
       </c>
@@ -13016,7 +13186,7 @@
         <v>0.86894586894586889</v>
       </c>
     </row>
-    <row r="284" spans="6:21">
+    <row r="284" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F284">
         <v>46.610690238096559</v>
       </c>
@@ -13030,7 +13200,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="285" spans="6:21">
+    <row r="285" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F285">
         <v>20.025800755336601</v>
       </c>
@@ -13044,7 +13214,7 @@
         <v>0.63888888888888884</v>
       </c>
     </row>
-    <row r="286" spans="6:21">
+    <row r="286" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F286">
         <v>15.601071365834912</v>
       </c>
@@ -13058,7 +13228,7 @@
         <v>0.45584045584045585</v>
       </c>
     </row>
-    <row r="287" spans="6:21">
+    <row r="287" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F287">
         <v>13.37630307308487</v>
       </c>
@@ -13072,7 +13242,7 @@
         <v>0.16595441595441596</v>
       </c>
     </row>
-    <row r="288" spans="6:21">
+    <row r="288" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F288">
         <v>13.811508146891295</v>
       </c>
@@ -13086,7 +13256,7 @@
         <v>7.1225071225071226E-3</v>
       </c>
     </row>
-    <row r="289" spans="6:21">
+    <row r="289" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F289">
         <v>43.245377736282236</v>
       </c>
@@ -13100,7 +13270,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="290" spans="6:21">
+    <row r="290" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F290">
         <v>23.395773968877357</v>
       </c>
@@ -13114,7 +13284,7 @@
         <v>4.3447293447293443E-2</v>
       </c>
     </row>
-    <row r="291" spans="6:21">
+    <row r="291" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F291">
         <v>17.834563723606216</v>
       </c>
@@ -13128,7 +13298,7 @@
         <v>0.34829059829059827</v>
       </c>
     </row>
-    <row r="292" spans="6:21">
+    <row r="292" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F292">
         <v>19.226579819317404</v>
       </c>
@@ -13142,7 +13312,7 @@
         <v>0.65028490028490027</v>
       </c>
     </row>
-    <row r="293" spans="6:21">
+    <row r="293" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F293">
         <v>12.255240150788309</v>
       </c>
@@ -13156,7 +13326,7 @@
         <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="294" spans="6:21">
+    <row r="294" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F294">
         <v>35.73320931374986</v>
       </c>
@@ -13170,7 +13340,7 @@
         <v>0.9814814814814814</v>
       </c>
     </row>
-    <row r="295" spans="6:21">
+    <row r="295" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F295">
         <v>37.813627667057531</v>
       </c>
@@ -13184,7 +13354,7 @@
         <v>0.17592592592592593</v>
       </c>
     </row>
-    <row r="296" spans="6:21">
+    <row r="296" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F296">
         <v>6.6495943644639439</v>
       </c>
@@ -13198,7 +13368,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="297" spans="6:21">
+    <row r="297" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F297">
         <v>35.219659373830133</v>
       </c>
@@ -13212,7 +13382,7 @@
         <v>0.22934472934472935</v>
       </c>
     </row>
-    <row r="298" spans="6:21">
+    <row r="298" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F298">
         <v>35.310237666150115</v>
       </c>
@@ -13226,7 +13396,7 @@
         <v>8.5470085470085479E-3</v>
       </c>
     </row>
-    <row r="299" spans="6:21">
+    <row r="299" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F299">
         <v>1.379940322585177</v>
       </c>
@@ -13240,7 +13410,7 @@
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="300" spans="6:21">
+    <row r="300" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F300">
         <v>0.50651927134891195</v>
       </c>
@@ -13254,7 +13424,7 @@
         <v>0.78418803418803418</v>
       </c>
     </row>
-    <row r="301" spans="6:21">
+    <row r="301" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F301">
         <v>42.167729339796921</v>
       </c>
@@ -13268,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="6:21">
+    <row r="302" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F302">
         <v>19.59981557493586</v>
       </c>
@@ -13282,7 +13452,7 @@
         <v>1.3532763532763533E-2</v>
       </c>
     </row>
-    <row r="303" spans="6:21">
+    <row r="303" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F303">
         <v>42.167548159252377</v>
       </c>
@@ -13296,7 +13466,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="304" spans="6:21">
+    <row r="304" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F304">
         <v>1.214147867473903</v>
       </c>
@@ -13310,7 +13480,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="305" spans="6:21">
+    <row r="305" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F305">
         <v>37.641795923086427</v>
       </c>
@@ -13324,7 +13494,7 @@
         <v>0.6431623931623931</v>
       </c>
     </row>
-    <row r="306" spans="6:21">
+    <row r="306" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F306">
         <v>42.041554146532981</v>
       </c>
@@ -13338,7 +13508,7 @@
         <v>0.79985754985754987</v>
       </c>
     </row>
-    <row r="307" spans="6:21">
+    <row r="307" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F307">
         <v>37.69074214764759</v>
       </c>
@@ -13352,7 +13522,7 @@
         <v>0.5242165242165242</v>
       </c>
     </row>
-    <row r="308" spans="6:21">
+    <row r="308" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F308">
         <v>43.211384420162283</v>
       </c>
@@ -13366,7 +13536,7 @@
         <v>5.6980056980056983E-3</v>
       </c>
     </row>
-    <row r="309" spans="6:21">
+    <row r="309" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F309">
         <v>27.560772024239906</v>
       </c>
@@ -13380,7 +13550,7 @@
         <v>0.12962962962962962</v>
       </c>
     </row>
-    <row r="310" spans="6:21">
+    <row r="310" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F310">
         <v>36.744789697613115</v>
       </c>
@@ -13394,7 +13564,7 @@
         <v>0.68091168091168086</v>
       </c>
     </row>
-    <row r="311" spans="6:21">
+    <row r="311" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F311">
         <v>1.296225279216598</v>
       </c>
@@ -13408,7 +13578,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="312" spans="6:21">
+    <row r="312" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F312">
         <v>28.769218752772176</v>
       </c>
@@ -13422,7 +13592,7 @@
         <v>0.51994301994301995</v>
       </c>
     </row>
-    <row r="313" spans="6:21">
+    <row r="313" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F313">
         <v>47.989783965830568</v>
       </c>
@@ -13436,7 +13606,7 @@
         <v>0.93376068376068377</v>
       </c>
     </row>
-    <row r="314" spans="6:21">
+    <row r="314" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F314">
         <v>42.936200486966314</v>
       </c>
@@ -13450,7 +13620,7 @@
         <v>1.4245014245014246E-3</v>
       </c>
     </row>
-    <row r="315" spans="6:21">
+    <row r="315" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F315">
         <v>42.52381579026018</v>
       </c>
@@ -13464,7 +13634,7 @@
         <v>0.96438746438746437</v>
       </c>
     </row>
-    <row r="316" spans="6:21">
+    <row r="316" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F316">
         <v>48.188032354657977</v>
       </c>
@@ -13478,7 +13648,7 @@
         <v>0.579059829059829</v>
       </c>
     </row>
-    <row r="317" spans="6:21">
+    <row r="317" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F317">
         <v>29.961279611120933</v>
       </c>
@@ -13492,7 +13662,7 @@
         <v>0.97008547008547008</v>
       </c>
     </row>
-    <row r="318" spans="6:21">
+    <row r="318" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F318">
         <v>5.5055275301448567</v>
       </c>
@@ -13506,7 +13676,7 @@
         <v>0.48717948717948723</v>
       </c>
     </row>
-    <row r="319" spans="6:21">
+    <row r="319" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F319">
         <v>48.848981192167443</v>
       </c>
@@ -13520,7 +13690,7 @@
         <v>0.52279202279202286</v>
       </c>
     </row>
-    <row r="320" spans="6:21">
+    <row r="320" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F320">
         <v>42.833489864334311</v>
       </c>
@@ -13534,7 +13704,7 @@
         <v>8.9743589743589744E-2</v>
       </c>
     </row>
-    <row r="321" spans="6:16">
+    <row r="321" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F321">
         <v>32.855699361337471</v>
       </c>
@@ -13545,7 +13715,7 @@
         <v>1.014448201660006</v>
       </c>
     </row>
-    <row r="322" spans="6:16">
+    <row r="322" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F322">
         <v>5.6493353343912567</v>
       </c>
